--- a/biology/Zoologie/Evansia_merens/Evansia_merens.xlsx
+++ b/biology/Zoologie/Evansia_merens/Evansia_merens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evansia merens, unique représentant du genre Evansia, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evansia merens, unique représentant du genre Evansia, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe[1].
-Sa présence est incertaine au Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe.
+Sa présence est incertaine au Japon.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2 à 2,3 mm et les femelles de 2,5 à 3 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2 à 2,3 mm et les femelles de 2,5 à 3 mm
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par O. Pickard-Cambridge en 1901.
 Ce genre a été décrit par O. Pickard-Cambridge en 1901 dans les Theridiidae.
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de William Evans (1851–1922) d'Édimbourg[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de William Evans (1851–1922) d'Édimbourg.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1901 : « Some notes on British spiders observed in 1899. » Proceedings of the Dorset Natural History and Antiquarian Field Club , vol. 21, p. 18-39.</t>
         </is>
